--- a/LOGS/5ae97e13-e065-4b5d-89a6-437a132fd520/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/5ae97e13-e065-4b5d-89a6-437a132fd520/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -14,23 +14,31 @@
     <sheet name="20__16787f05-ba09-32" sheetId="5" r:id="rId5"/>
     <sheet name="19__99be7f71-bd17-33" sheetId="6" r:id="rId6"/>
     <sheet name="19__16787f05-ba09-32" sheetId="7" r:id="rId7"/>
-    <sheet name="5__9b19380a-880a-366" sheetId="8" r:id="rId8"/>
-    <sheet name="6__f1fe8f9e-8034-3c5" sheetId="9" r:id="rId9"/>
-    <sheet name="7__f1fe8f9e-8034-3c5" sheetId="10" r:id="rId10"/>
-    <sheet name="8__f1fe8f9e-8034-3c5" sheetId="11" r:id="rId11"/>
-    <sheet name="9__f1fe8f9e-8034-3c5" sheetId="12" r:id="rId12"/>
-    <sheet name="10__60ca238e-8895-3b" sheetId="13" r:id="rId13"/>
-    <sheet name="11__60ca238e-8895-3b" sheetId="14" r:id="rId14"/>
-    <sheet name="12__60ca238e-8895-3b" sheetId="15" r:id="rId15"/>
-    <sheet name="13__170bd866-663f-33" sheetId="16" r:id="rId16"/>
-    <sheet name="13__61add208-6a47-33" sheetId="17" r:id="rId17"/>
+    <sheet name="21__16787f05-ba09-32" sheetId="8" r:id="rId8"/>
+    <sheet name="22__11f0b598-bee9-32" sheetId="9" r:id="rId9"/>
+    <sheet name="22__237f1050-8666-37" sheetId="10" r:id="rId10"/>
+    <sheet name="23__ac961699-3fd8-3e" sheetId="11" r:id="rId11"/>
+    <sheet name="24__02a78276-4ff9-37" sheetId="12" r:id="rId12"/>
+    <sheet name="25__8d776587-00df-31" sheetId="13" r:id="rId13"/>
+    <sheet name="25__4423ed03-b93d-39" sheetId="14" r:id="rId14"/>
+    <sheet name="25__bcffcef6-59c4-3e" sheetId="15" r:id="rId15"/>
+    <sheet name="5__9b19380a-880a-366" sheetId="16" r:id="rId16"/>
+    <sheet name="6__f1fe8f9e-8034-3c5" sheetId="17" r:id="rId17"/>
+    <sheet name="7__f1fe8f9e-8034-3c5" sheetId="18" r:id="rId18"/>
+    <sheet name="8__f1fe8f9e-8034-3c5" sheetId="19" r:id="rId19"/>
+    <sheet name="9__f1fe8f9e-8034-3c5" sheetId="20" r:id="rId20"/>
+    <sheet name="10__60ca238e-8895-3b" sheetId="21" r:id="rId21"/>
+    <sheet name="11__60ca238e-8895-3b" sheetId="22" r:id="rId22"/>
+    <sheet name="12__60ca238e-8895-3b" sheetId="23" r:id="rId23"/>
+    <sheet name="13__170bd866-663f-33" sheetId="24" r:id="rId24"/>
+    <sheet name="13__61add208-6a47-33" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="159">
   <si>
     <t>line_item_0</t>
   </si>
@@ -216,6 +224,120 @@
   </si>
   <si>
     <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>Trade payables due to related entities</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Accrued expenses</t>
+  </si>
+  <si>
+    <t>Landed cost clearing</t>
+  </si>
+  <si>
+    <t>Bank borrowings</t>
+  </si>
+  <si>
+    <t>Uncommitted unsecured bank loans</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Non-current liabilities</t>
+  </si>
+  <si>
+    <t>The Group has access to the debt facility as follows:</t>
+  </si>
+  <si>
+    <t>Unsecured bank loans</t>
+  </si>
+  <si>
+    <t>Facilities utilised at reporting date</t>
+  </si>
+  <si>
+    <t>Facilities not utilised at reporting date</t>
+  </si>
+  <si>
+    <t>Long service leave provision</t>
+  </si>
+  <si>
+    <t>Annual leave provision</t>
+  </si>
+  <si>
+    <t>Long-service leave provision</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Non-Current</t>
+  </si>
+  <si>
+    <t>Balance at1 January 2021</t>
+  </si>
+  <si>
+    <t>Provisions made during the year</t>
+  </si>
+  <si>
+    <t>Provisions used during the year</t>
+  </si>
+  <si>
+    <t>Foreign currency translation</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>(217)</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>(544)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>31 December 2021</t>
+  </si>
+  <si>
+    <t>31 December 2022</t>
+  </si>
+  <si>
+    <t>Extended warranties</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>21,000,000 Ordinary shares</t>
+  </si>
+  <si>
+    <t>Issued and fully paid:</t>
+  </si>
+  <si>
+    <t>Ordinary shares</t>
+  </si>
+  <si>
+    <t>Dividend franking account</t>
   </si>
   <si>
     <t>Sale of goods</t>
@@ -842,7 +964,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,10 +992,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>475</v>
+        <v>366527</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -887,10 +1012,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>366527</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -904,10 +1032,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>33840</v>
+        <v>715620</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -921,10 +1052,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>6803</v>
+        <v>715620</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -938,205 +1072,81 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>934</v>
+        <v>258000</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>909</v>
+        <v>258000</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>1018</v>
+        <v>800845</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
       <c r="C9">
-        <v>44045</v>
+        <v>800845</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10">
-        <v>395</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11">
-        <v>2450</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12">
-        <v>28495</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13">
-        <v>6349</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14">
-        <v>584</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>391</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16">
-        <v>874</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>39538</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17">
         <v>2021</v>
       </c>
     </row>
@@ -1175,10 +1185,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>365</v>
+        <v>2226</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -1192,10 +1205,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>341</v>
+        <v>3518</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1209,10 +1225,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>5744</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1226,10 +1245,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1245,8 +1267,11 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
       <c r="C6">
-        <v>792</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1260,10 +1285,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>369</v>
+        <v>1998</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1277,10 +1305,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>278</v>
+        <v>3204</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1294,10 +1325,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
       </c>
       <c r="C9">
-        <v>68</v>
+        <v>5202</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1311,10 +1345,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1330,8 +1367,11 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
       <c r="C11">
-        <v>716</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1350,7 +1390,1304 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>1376</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>1028</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>-764</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>1640</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7">
+        <v>1640</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8">
+        <v>1219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>-800</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>2058</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12">
+        <v>350</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>1290</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>1640</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>419</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16">
+        <v>1639</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <v>2058</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>20882</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19">
+        <v>68580</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
+        <v>-60278</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>29196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23">
+        <v>29196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24">
+        <v>64781</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25">
+        <v>-64441</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>-22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27">
+        <v>29514</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>29196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30">
+        <v>29196</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31">
+        <v>29514</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33">
+        <v>29514</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <v>22344</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>69985</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36">
+        <v>-61259</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>31082</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>31082</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40">
+        <v>66311</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>-65785</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <v>-23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43">
+        <v>31585</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44">
+        <v>29792</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>1290</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46">
+        <v>31082</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47">
+        <v>29946</v>
+      </c>
+      <c r="E47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48">
+        <v>1639</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49">
+        <v>31585</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>21000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>21000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1378,16 +2715,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>17081</v>
+        <v>145238</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -1395,324 +2732,18 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>1964</v>
+        <v>122618</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>1165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>1555</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>387</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7">
-        <v>311</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8">
-        <v>484</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9">
-        <v>1081</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>24038</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12">
-        <v>18855</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13">
-        <v>1940</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14">
-        <v>1112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15">
-        <v>1418</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16">
-        <v>320</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17">
-        <v>378</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
-        <v>602</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19">
-        <v>788</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>25413</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21">
         <v>2021</v>
       </c>
     </row>
@@ -1721,263 +2752,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
-        <v>310</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>451</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>1067</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>236</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>6054</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>8530</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10">
-        <v>197</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>310</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13">
-        <v>328</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14">
-        <v>2154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15">
-        <v>266</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16">
-        <v>4888</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>8209</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,19 +2765,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -2008,19 +2785,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>732130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>2022</v>
@@ -2028,271 +2805,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>-513</v>
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>650842</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="G3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4">
-        <v>785</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5">
-        <v>1823</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6">
-        <v>1186</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8">
-        <v>-70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>3293</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10">
-        <v>-5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11">
-        <v>-62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12">
-        <v>750</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13">
-        <v>1713</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14">
-        <v>1234</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16">
-        <v>1234</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>4934</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17">
         <v>2021</v>
       </c>
     </row>
@@ -2301,311 +2828,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2">
-        <v>2022</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4">
-        <v>17184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5">
-        <v>154</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6">
-        <v>17338</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7">
-        <v>-6318</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8">
-        <v>-6318</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9">
-        <v>11020</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12">
-        <v>15727</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14">
-        <v>15727</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>-5647</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>-5647</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17">
-        <v>10080</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2633,10 +2858,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2">
-        <v>42772</v>
+        <v>542</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2650,10 +2875,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>12860</v>
+        <v>1298</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -2667,10 +2892,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>-31</v>
+        <v>1840</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2684,206 +2909,52 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C6">
-        <v>-255</v>
+        <v>1839</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>12595</v>
+        <v>2167</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8">
-        <v>12595</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9">
-        <v>50167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10">
-        <v>15003</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12">
-        <v>-50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13">
-        <v>293</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14">
-        <v>15369</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15">
-        <v>15369</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
         <v>2021</v>
       </c>
     </row>
@@ -2892,319 +2963,506 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2">
+        <v>475</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>33840</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>6803</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>934</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>909</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>1018</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>44045</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10">
+        <v>395</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>2450</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>28495</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>6349</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14">
+        <v>584</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>391</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>874</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>39538</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>365</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>341</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2">
-        <v>14535</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>792</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>369</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3">
-        <v>-255</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4">
-        <v>14280</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5">
-        <v>-1677</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6">
-        <v>-8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>12595</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8">
-        <v>18230</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9">
-        <v>293</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H9">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10">
-        <v>18523</v>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11">
-        <v>-3158</v>
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>716</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>15369</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13">
+        <v>19</v>
+      </c>
+      <c r="F11">
         <v>2021</v>
       </c>
     </row>
@@ -3552,6 +3810,1871 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>17081</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>1964</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4">
+        <v>1165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5">
+        <v>1555</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>387</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8">
+        <v>484</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9">
+        <v>1081</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>24038</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12">
+        <v>18855</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>1940</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14">
+        <v>1112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15">
+        <v>1418</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17">
+        <v>378</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18">
+        <v>602</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>788</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>25413</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3">
+        <v>310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>451</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6">
+        <v>1067</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>6054</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>8530</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14">
+        <v>2154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>266</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>4888</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>8209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>-513</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4">
+        <v>785</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5">
+        <v>1823</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6">
+        <v>1186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>-70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>3293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>-5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>-62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12">
+        <v>750</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>1713</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>1234</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16">
+        <v>1234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>4934</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4">
+        <v>17184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6">
+        <v>17338</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7">
+        <v>-6318</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>-6318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>11020</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12">
+        <v>15727</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>15727</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15">
+        <v>-5647</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>-5647</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17">
+        <v>10080</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2">
+        <v>42772</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3">
+        <v>12860</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>-31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6">
+        <v>-255</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <v>12595</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>12595</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <v>50167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>15003</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12">
+        <v>-50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>293</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>15369</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15">
+        <v>15369</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2">
+        <v>14535</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>-255</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4">
+        <v>14280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5">
+        <v>-1677</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <v>-8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7">
+        <v>12595</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8">
+        <v>18230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>18523</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11">
+        <v>-3158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13">
+        <v>15369</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
@@ -8335,83 +10458,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2">
-        <v>732130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>650842</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3">
-        <v>2021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8439,10 +10486,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>542</v>
+        <v>147833</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -8456,10 +10503,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>1298</v>
+        <v>6758</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -8473,10 +10520,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>1840</v>
+        <v>11384</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -8490,44 +10537,44 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5">
-        <v>328</v>
+        <v>4143</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1839</v>
+        <v>170118</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>2167</v>
+        <v>174266</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -8536,6 +10583,500 @@
         <v>19</v>
       </c>
       <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>15710</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>7399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>3843</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>201218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>131527</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>131527</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8">
+        <v>235000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>235000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>1082147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>1082147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>89000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>89000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>169000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>169000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22">
+        <v>2021</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>1058845</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>1058845</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
         <v>2021</v>
       </c>
     </row>
